--- a/within_states/within_state_disparity_data/community_participation_within_2022_excel.xlsx
+++ b/within_states/within_state_disparity_data/community_participation_within_2022_excel.xlsx
@@ -40,7 +40,7 @@
     <t>z_pwd_19_64_uninsured_pct</t>
   </si>
   <si>
-    <t>index_pwd_19_64_uninsured_pct</t>
+    <t>EQ_index_pwd_19_64_uninsured_pct</t>
   </si>
   <si>
     <t>pwd_grtoeq_65_uninsured_pct</t>
@@ -55,7 +55,7 @@
     <t>z_pwd_grtoeq_65_uninsured_pct</t>
   </si>
   <si>
-    <t>index_pwd_grtoeq_65_uninsured_pct</t>
+    <t>EQ_index_pwd_grtoeq_65_uninsured_pct</t>
   </si>
   <si>
     <t>pwd_lessthan_highschool_pct</t>
@@ -70,7 +70,7 @@
     <t>z_pwd_lessthan_highschool_pct</t>
   </si>
   <si>
-    <t>index_pwd_lessthan_highschool_pct</t>
+    <t>EQ_index_pwd_lessthan_highschool_pct</t>
   </si>
   <si>
     <t>pwd_degree_grtoeq_ba_pct</t>
@@ -85,7 +85,7 @@
     <t>z_pwd_degree_grtoeq_ba_pct</t>
   </si>
   <si>
-    <t>index_pwd_degree_grtoeq_ba_pct</t>
+    <t>EQ_index_pwd_degree_grtoeq_ba_pct</t>
   </si>
   <si>
     <t>pwd_computer_pct</t>
@@ -100,7 +100,7 @@
     <t>z_pwd_computer_pct</t>
   </si>
   <si>
-    <t>index_pwd_computer_pct</t>
+    <t>EQ_index_pwd_computer_pct</t>
   </si>
   <si>
     <t>pwd_int_pct</t>
@@ -115,7 +115,7 @@
     <t>z_pwd_int_pct</t>
   </si>
   <si>
-    <t>index_pwd_int_pct</t>
+    <t>EQ_index_pwd_int_pct</t>
   </si>
   <si>
     <t>pwd_smartphone_pct</t>
@@ -130,7 +130,7 @@
     <t>z_pwd_smartphone_pct</t>
   </si>
   <si>
-    <t>index_pwd_smartphone_pct</t>
+    <t>EQ_index_pwd_smartphone_pct</t>
   </si>
   <si>
     <t>Participation Equity</t>
